--- a/scheme/Tramita/issues_metadados_tramita.xlsx
+++ b/scheme/Tramita/issues_metadados_tramita.xlsx
@@ -72541,7 +72541,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMS01</t>
+          <t>MQME001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -72556,7 +72556,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMS02</t>
+          <t>MQME002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -72571,7 +72571,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMS03</t>
+          <t>MQME003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -72586,7 +72586,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMS04</t>
+          <t>MQME004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -72601,7 +72601,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMS05</t>
+          <t>MQME005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -72677,7 +72677,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME11</t>
+          <t>MQME013</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -72707,7 +72707,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQME11</t>
+          <t>MQME013</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -72737,7 +72737,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -72767,7 +72767,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -72797,7 +72797,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -72827,7 +72827,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -72857,7 +72857,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -72887,7 +72887,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -72917,7 +72917,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -72947,7 +72947,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -72977,7 +72977,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -73007,7 +73007,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -73037,7 +73037,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -73067,7 +73067,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -73097,7 +73097,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -73127,7 +73127,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -73157,7 +73157,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -73187,7 +73187,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -73217,7 +73217,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -73247,7 +73247,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -73277,7 +73277,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -73307,7 +73307,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -73337,7 +73337,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -73367,7 +73367,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -73397,7 +73397,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -73427,7 +73427,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -73457,7 +73457,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -73487,7 +73487,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -73517,7 +73517,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -73547,7 +73547,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -73577,7 +73577,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -73607,7 +73607,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -73637,7 +73637,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -73667,7 +73667,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -73697,7 +73697,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -73727,7 +73727,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -73757,7 +73757,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -73787,7 +73787,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -73817,7 +73817,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -73847,7 +73847,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -73877,7 +73877,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -73907,7 +73907,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -73937,7 +73937,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -73967,7 +73967,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -73997,7 +73997,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -74027,7 +74027,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -74057,7 +74057,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -74087,7 +74087,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -74117,7 +74117,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -74147,7 +74147,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -74177,7 +74177,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -74207,7 +74207,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -74237,7 +74237,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -74267,7 +74267,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -74297,7 +74297,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -74327,7 +74327,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -74357,7 +74357,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -74387,7 +74387,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -74417,7 +74417,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -74447,7 +74447,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -74477,7 +74477,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -74507,7 +74507,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -74537,7 +74537,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -74567,7 +74567,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -74597,7 +74597,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -74627,7 +74627,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -74657,7 +74657,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -74687,7 +74687,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -74717,7 +74717,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -74747,7 +74747,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -74777,7 +74777,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -74807,7 +74807,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -74837,7 +74837,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -74867,7 +74867,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -74897,7 +74897,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -74927,7 +74927,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -74957,7 +74957,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -74987,7 +74987,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -75017,7 +75017,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -75047,7 +75047,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -75077,7 +75077,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -75107,7 +75107,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -75137,7 +75137,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -75167,7 +75167,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -75197,7 +75197,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -75227,7 +75227,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -75257,7 +75257,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -75287,7 +75287,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -75317,7 +75317,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -75347,7 +75347,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -75377,7 +75377,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -75407,7 +75407,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -75437,7 +75437,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -75467,7 +75467,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -75497,7 +75497,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -75527,7 +75527,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -75557,7 +75557,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -75587,7 +75587,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -75617,7 +75617,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -75647,7 +75647,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -75677,7 +75677,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -75707,7 +75707,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -75737,7 +75737,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -75767,7 +75767,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -75797,7 +75797,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -75827,7 +75827,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -75857,7 +75857,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -75887,7 +75887,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -75917,7 +75917,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -75947,7 +75947,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -75977,7 +75977,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -76007,7 +76007,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -76037,7 +76037,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -76067,7 +76067,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -76097,7 +76097,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -76127,7 +76127,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -76157,7 +76157,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -76187,7 +76187,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -76217,7 +76217,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -76247,7 +76247,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -76277,7 +76277,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -76307,7 +76307,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -76337,7 +76337,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -76367,7 +76367,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -76397,7 +76397,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -76427,7 +76427,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -76457,7 +76457,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -76487,7 +76487,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -76517,7 +76517,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -76547,7 +76547,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -76577,7 +76577,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -76607,7 +76607,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -76637,7 +76637,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -76667,7 +76667,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -76697,7 +76697,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -76727,7 +76727,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -76757,7 +76757,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -76787,7 +76787,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -76817,7 +76817,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -76847,7 +76847,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -76877,7 +76877,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -76907,7 +76907,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -76937,7 +76937,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -76967,7 +76967,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -76997,7 +76997,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -77027,7 +77027,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -77057,7 +77057,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -77087,7 +77087,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -77117,7 +77117,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -77147,7 +77147,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -77177,7 +77177,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -77207,7 +77207,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -77237,7 +77237,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -77267,7 +77267,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -77297,7 +77297,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -77327,7 +77327,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -77357,7 +77357,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -77387,7 +77387,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -77417,7 +77417,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -77447,7 +77447,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -77477,7 +77477,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -77507,7 +77507,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -77537,7 +77537,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -77567,7 +77567,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -77597,7 +77597,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -77627,7 +77627,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -77657,7 +77657,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -77687,7 +77687,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -77717,7 +77717,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -77747,7 +77747,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -77777,7 +77777,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -77807,7 +77807,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -77837,7 +77837,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -77867,7 +77867,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -77897,7 +77897,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -77927,7 +77927,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -77957,7 +77957,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -77987,7 +77987,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -78017,7 +78017,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -78047,7 +78047,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -78077,7 +78077,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -78107,7 +78107,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -78137,7 +78137,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -78167,7 +78167,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -78197,7 +78197,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -78227,7 +78227,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -78257,7 +78257,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -78287,7 +78287,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -78317,7 +78317,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -78347,7 +78347,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -78377,7 +78377,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -78407,7 +78407,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -78437,7 +78437,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -78467,7 +78467,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -78497,7 +78497,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -78527,7 +78527,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -78557,7 +78557,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -78587,7 +78587,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -78617,7 +78617,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -78647,7 +78647,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -78677,7 +78677,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -78707,7 +78707,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -78737,7 +78737,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -78767,7 +78767,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -78797,7 +78797,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -78827,7 +78827,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -78857,7 +78857,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>MQME14</t>
+          <t>MQME009</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -78899,7 +78899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78927,45 +78927,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME00</t>
+          <t>MQME006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1161</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMEA1</t>
+          <t>MQME007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of length-required columns</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MQMEA2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total number of NUMBER columns</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>835</v>
       </c>
     </row>
@@ -78980,7 +78965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79008,63 +78993,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQME01</t>
+          <t>MQID001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Columns with comments</t>
+          <t>Table names in singular</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>95.61%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQME02</t>
+          <t>MQID002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Columns with data type</t>
+          <t>Table with recommended name length</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>98.63%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQME03</t>
+          <t>MQID003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Length-required columns with data length</t>
+          <t>Columns with correct prefixes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>86.82%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQME04</t>
+          <t>MQID004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NUMBER columns with valid scale</t>
+          <t>Columns with recommended name size</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -79076,49 +79061,117 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQME05</t>
+          <t>MQID005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Columns with valid num_distinct</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>95.61%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQME06</t>
+          <t>MQID006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Columns with valid num_nulls</t>
+          <t>Table with standard PK prefixes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>99.56%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQME07</t>
+          <t>MQID007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Columns with valid density</t>
+          <t>Table with standard FK prefixes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQID008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Table with standard UK prefixes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQID009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NUMBER columns with valid scale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQID010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns with valid num_distinct</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQID011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns with valid num_nulls</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
